--- a/biology/Zoologie/Cerithium/Cerithium.xlsx
+++ b/biology/Zoologie/Cerithium/Cerithium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerithium est un genre de mollusques gastéropodes marins de la famille des Cerithiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des coquillages très communs à faible profondeur, et donc facilement trouvés par les baigneurs. Leur forme est conique, avec des tours très ornementés, et une ouverture ovale oblique et ouverte aux deux extrémités. 
 Les nombreuses espèces de ce genre sont toutes phytophages, c'est-à-dire qu'elles se nourrissent d'algues. 
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (4 novembre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (4 novembre 2018) :
 Cerithium abditum Houbrick, 1992
 Cerithium adustum Kiener, 1841
 Cerithium africanum Houbrick, 1992
